--- a/策划文档/计划安排.xlsx
+++ b/策划文档/计划安排.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,14 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能衔接的测试，调整，地图的搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试技能combo的bug/boss技能以及AI的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>策划部分BOSS未完成，程序部分连招未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,7 +62,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pvp,pve地图完成，pve流程设计完成，技能combo测试整理完成</t>
+    <t>调试技能combo的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp地图的实现，小怪以及BOSS的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp,pve地图完成，pve流程设计完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试技能combo，整理需要修改的问题，Ui的重新设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图的搭建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,13 +428,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="54.125" customWidth="1"/>
     <col min="5" max="5" width="37.625" customWidth="1"/>
@@ -444,13 +452,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -464,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -475,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -489,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -503,10 +511,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
